--- a/data/nuc_cell_seg_delivery_20170210/20160705_S03.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/20160705_S03.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="243">
   <si>
     <t>DeliveryDate</t>
   </si>
@@ -741,6 +741,18 @@
   </si>
   <si>
     <t>01;02;05;06;07;</t>
+  </si>
+  <si>
+    <t>01;03;04;05;06;</t>
+  </si>
+  <si>
+    <t>20160705_S03_060.czi</t>
+  </si>
+  <si>
+    <t>20160705_S03_060.czi_nucWholeIndex.tiff</t>
+  </si>
+  <si>
+    <t>20160705_S03_060.czi_cellWholeIndex.tiff</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O12" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="W61" sqref="W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1124,14 +1136,14 @@
     <col min="4" max="4" width="65.7109375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="116.140625" customWidth="1"/>
+    <col min="14" max="14" width="147.140625" customWidth="1"/>
     <col min="15" max="16" width="44.7109375" customWidth="1"/>
     <col min="17" max="17" width="29.140625" customWidth="1"/>
     <col min="18" max="18" width="26" customWidth="1"/>
     <col min="19" max="19" width="24.140625" customWidth="1"/>
     <col min="20" max="20" width="57.140625" customWidth="1"/>
     <col min="21" max="21" width="53" customWidth="1"/>
-    <col min="22" max="22" width="109.140625" customWidth="1"/>
+    <col min="22" max="22" width="154.85546875" customWidth="1"/>
     <col min="23" max="23" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1337,18 +1349,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T60" si="0">CONCATENATE(E3,"_nucWholeIndex.tiff")</f>
+        <f t="shared" ref="T3:T58" si="0">CONCATENATE(E3,"_nucWholeIndex.tiff")</f>
         <v>20160705_S03_002.czi_nucWholeIndex.tiff</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U60" si="1">CONCATENATE(E3,"_cellWholeIndex.tiff")</f>
+        <f t="shared" ref="U3:U58" si="1">CONCATENATE(E3,"_cellWholeIndex.tiff")</f>
         <v>20160705_S03_002.czi_cellWholeIndex.tiff</v>
       </c>
       <c r="V3" t="s">
         <v>28</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W60" si="2">CONCATENATE(E3,"_structSegmentation.tiff")</f>
+        <f t="shared" ref="W3:W58" si="2">CONCATENATE(E3,"_structSegmentation.tiff")</f>
         <v>20160705_S03_002.czi_structSegmentation.tiff</v>
       </c>
     </row>
@@ -5481,18 +5493,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(E59,"_nucWholeIndex.tiff")</f>
         <v>20160705_S03_058.czi_nucWholeIndex.tiff</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(E59,"_cellWholeIndex.tiff")</f>
         <v>20160705_S03_058.czi_cellWholeIndex.tiff</v>
       </c>
       <c r="V59" t="s">
         <v>28</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E59,"_structSegmentation.tiff")</f>
         <v>20160705_S03_058.czi_structSegmentation.tiff</v>
       </c>
     </row>
@@ -5555,19 +5567,91 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(E60,"_nucWholeIndex.tiff")</f>
         <v>20160705_S03_059.czi_nucWholeIndex.tiff</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(E60,"_cellWholeIndex.tiff")</f>
         <v>20160705_S03_059.czi_cellWholeIndex.tiff</v>
       </c>
       <c r="V60" t="s">
         <v>28</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(E60,"_structSegmentation.tiff")</f>
         <v>20160705_S03_059.czi_structSegmentation.tiff</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" t="s">
+        <v>241</v>
+      </c>
+      <c r="P61" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>239</v>
+      </c>
+      <c r="R61" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S61" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T61" t="s">
+        <v>241</v>
+      </c>
+      <c r="U61" t="s">
+        <v>242</v>
+      </c>
+      <c r="V61" t="s">
+        <v>28</v>
+      </c>
+      <c r="W61" t="str">
+        <f>CONCATENATE(E61,"_structSegmentation.tiff")</f>
+        <v>20160705_S03_060.czi_structSegmentation.tiff</v>
       </c>
     </row>
   </sheetData>

--- a/data/nuc_cell_seg_delivery_20170210/20160705_S03.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/20160705_S03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minipipeline_results\script_spreadsheet_20170214\updated_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_10_Nuc_Cell_Seg_For_Release_Group_1\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="244">
   <si>
     <t>DeliveryDate</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>20160705_S03_060.czi_cellWholeIndex.tiff</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -1125,9 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1148,7 +1149,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
